--- a/이미지/PerformaceEval.xlsx
+++ b/이미지/PerformaceEval.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="30195" windowHeight="13560"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="데이터트래픽부하" sheetId="9" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SDMM#2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P-GW in LTE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +59,10 @@
   </si>
   <si>
     <t>P-EGW in SDMM-RO-PPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDMM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,11 +594,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115192192"/>
-        <c:axId val="115194112"/>
+        <c:axId val="106606976"/>
+        <c:axId val="106608896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115192192"/>
+        <c:axId val="106606976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,7 +635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115194112"/>
+        <c:crossAx val="106608896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -643,7 +643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115194112"/>
+        <c:axId val="106608896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3500"/>
@@ -682,7 +682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115192192"/>
+        <c:crossAx val="106606976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1402,669 +1402,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'50Mbps'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SDMM#1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'50Mbps'!$A$3:$A$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'50Mbps'!$C$3:$C$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'50Mbps'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SDMM#2</c:v>
+                  <c:v>SDMM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2715,11 +2061,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117322112"/>
-        <c:axId val="117324032"/>
+        <c:axId val="62206336"/>
+        <c:axId val="62208256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117322112"/>
+        <c:axId val="62206336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,7 +2095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117324032"/>
+        <c:crossAx val="62208256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2758,7 +2104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117324032"/>
+        <c:axId val="62208256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2802,7 +2148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117322112"/>
+        <c:crossAx val="62206336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -3170,11 +2516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116983296"/>
-        <c:axId val="116985216"/>
+        <c:axId val="61867520"/>
+        <c:axId val="61869440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116983296"/>
+        <c:axId val="61867520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3202,7 +2548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116985216"/>
+        <c:crossAx val="61869440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3210,7 +2556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116985216"/>
+        <c:axId val="61869440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,7 +2596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116983296"/>
+        <c:crossAx val="61867520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3676,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3690,16 +3036,16 @@
   <sheetData>
     <row r="4" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.3">
@@ -3884,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3912,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -5398,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
